--- a/docs/boli-infectioase-2021.xlsx
+++ b/docs/boli-infectioase-2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -70,6 +70,9 @@
     <t>Prevalența VHC în funcție de drogurl principal de consum</t>
   </si>
   <si>
+    <t>Prevalența VHC în funcție de tipul admiterii la tratament pentru consum de droguri</t>
+  </si>
+  <si>
     <t>Prevalența HIV în funcție de sex</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>Prevalența HIV în funcție de drogurl principal de consum</t>
   </si>
   <si>
+    <t>Prevalența HIV în funcție de tipul admiterii la tratament pentru consum de droguri</t>
+  </si>
+  <si>
     <t>Prevalența VHB în funcție de sex</t>
   </si>
   <si>
@@ -92,6 +98,15 @@
   </si>
   <si>
     <t>Prevalența VHB în funcție de drogurl principal de consum</t>
+  </si>
+  <si>
+    <t>Prevalența VHB în funcție de tipul admiterii la tratament pentru consum de droguri</t>
+  </si>
+  <si>
+    <t>A mai fost în tratament</t>
+  </si>
+  <si>
+    <t>Primul tratament</t>
   </si>
   <si>
     <t>Opioide</t>
@@ -207,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -224,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -525,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,15 +560,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
+      <c r="A3" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +598,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
@@ -594,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" customHeight="1">
@@ -608,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0.69091000000000002</v>
+        <v>0.74626999999999999</v>
       </c>
       <c r="C9" s="3">
         <v>0.66666999999999998</v>
       </c>
       <c r="D9" s="3">
-        <v>0.68659999999999999</v>
+        <v>0.72829999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -641,13 +659,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -655,13 +673,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
@@ -669,13 +687,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>0.33329999999999999</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="C17" s="3">
-        <v>0.72916999999999998</v>
+        <v>0.72367999999999999</v>
       </c>
       <c r="D17" s="3">
-        <v>0.70130000000000003</v>
+        <v>0.76744000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -705,16 +723,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
       <c r="E23" s="3">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -722,16 +740,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
@@ -739,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="3">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="3">
-        <v>0.33333000000000002</v>
+        <v>0.64285999999999999</v>
       </c>
       <c r="E25" s="3">
-        <v>0.70833000000000002</v>
+        <v>0.79630000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -761,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1">
@@ -772,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
@@ -783,532 +801,674 @@
         <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C32" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3">
-        <v>0.68503999999999998</v>
+        <v>0.72670999999999997</v>
       </c>
       <c r="C33" s="3">
-        <v>0.71428999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>126</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>173</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3">
+        <f>SUM(B50:C50)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>133</v>
+      </c>
+      <c r="C51" s="3">
+        <v>39</v>
+      </c>
+      <c r="D51" s="3">
+        <f>SUM(B51:C51)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.21052999999999999</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.17949000000000001</v>
+      </c>
+      <c r="D52" s="7">
+        <f>D50/D51</f>
+        <v>0.20348837209302326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
         <v>19</v>
       </c>
-      <c r="C44" s="3">
+    </row>
+    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.27272999999999997</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.17333000000000001</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.22092999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>14</v>
+      </c>
+      <c r="E67" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.20369999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="26.25">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3">
+        <v>31</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3">
+        <v>160</v>
+      </c>
+      <c r="C75" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="26.25">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3">
+        <v>35</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3">
+        <v>172</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.20349</v>
+      </c>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="3">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3">
+        <v>131</v>
+      </c>
+      <c r="C94" s="3">
+        <v>39</v>
+      </c>
+      <c r="D94" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3.0530000000000002E-2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2.564E-2</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2.9409999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="3">
+    </row>
+    <row r="101" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3">
+        <v>11</v>
+      </c>
+      <c r="C102" s="3">
+        <v>73</v>
+      </c>
+      <c r="D102" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1">
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3">
+        <v>9.0910000000000005E-2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3.4880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3">
+        <v>10</v>
+      </c>
+      <c r="D110" s="3">
+        <v>14</v>
+      </c>
+      <c r="E110" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="26.25">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="3">
+        <v>158</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="3">
-        <v>108</v>
-      </c>
-      <c r="C45" s="3">
-        <v>26</v>
-      </c>
-      <c r="D45" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+    <row r="124" spans="1:3" ht="26.25">
+      <c r="A124" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="3">
+        <v>170</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
-        <v>0.17593</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.34615000000000001</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.20896000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="3">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3">
-        <v>46</v>
-      </c>
-      <c r="D53" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.33333000000000002</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.17391000000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.21518999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="3">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3">
-        <v>12</v>
-      </c>
-      <c r="D61" s="3">
-        <v>6</v>
-      </c>
-      <c r="E61" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.16667000000000001</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="26.25">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3">
-        <v>27</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="3">
-        <v>127</v>
-      </c>
-      <c r="C69" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.21260000000000001</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.14285999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="3">
-        <v>10</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="3">
-        <v>108</v>
-      </c>
-      <c r="C82" s="3">
-        <v>24</v>
-      </c>
-      <c r="D82" s="3">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="3">
-        <v>9.2590000000000006E-2</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3">
-        <v>7.5759999999999994E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0</v>
-      </c>
-      <c r="C89" s="3">
-        <v>5</v>
-      </c>
-      <c r="D89" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="3">
-        <v>9</v>
-      </c>
-      <c r="C90" s="3">
-        <v>47</v>
-      </c>
-      <c r="D90" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>0.10638</v>
-      </c>
-      <c r="D91" s="3">
-        <v>6.5790000000000001E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="3">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="3">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3">
-        <v>12</v>
-      </c>
-      <c r="D98" s="3">
-        <v>6</v>
-      </c>
-      <c r="E98" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="3">
-        <v>8.3330000000000001E-2</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0.16667000000000001</v>
-      </c>
-      <c r="E99" s="3">
-        <v>8.5110000000000005E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="26.25">
-      <c r="A104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="3">
-        <v>10</v>
-      </c>
-      <c r="C105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="3">
-        <v>125</v>
-      </c>
-      <c r="C106" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C107" s="3">
-        <v>0</v>
-      </c>
+      <c r="B127" s="3">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="C127" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
